--- a/medicine/Psychotrope/Cannonau_di_Sardegna_Jerzu/Cannonau_di_Sardegna_Jerzu.xlsx
+++ b/medicine/Psychotrope/Cannonau_di_Sardegna_Jerzu/Cannonau_di_Sardegna_Jerzu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cannonau di Sardegna Jerzu est un vin DOC, depuis le décret du 21 juillet 1972. Il est produit dans la province de Nuoro, dans la commune de Jerzu, à partir de raisins du cépage cannonau.
@@ -512,7 +524,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>couleur : rouge rubis plus ou moins intense, tendant à l'orange avec le vieillissement
 odeur : fruits rouges, agréable, caractéristique de ce vin
@@ -544,7 +558,9 @@
           <t>Détails historiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Coopérative vinicole de Jerzu a été créée par le Dr Josto Miglior.
 </t>
@@ -575,7 +591,9 @@
           <t>Mariage conseillé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Venaison, fromages affinés (Brebis).</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :
 Nuoro  (1992/93)  3919,43
